--- a/target/test-classes/testdata/OrangeHrmData.xlsx
+++ b/target/test-classes/testdata/OrangeHrmData.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milenasibalic/eclipse-workspace/TestNGFramework/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C66BD4-DA9D-DB48-B48F-8AC5E8D1523E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F27D6D0-5656-9F42-B3AD-B4CCC4753C55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="460" windowWidth="25440" windowHeight="14540" xr2:uid="{D87D42EB-05A8-1D46-991C-3742397F4713}"/>
+    <workbookView xWindow="44100" yWindow="4040" windowWidth="25440" windowHeight="14520" activeTab="1" xr2:uid="{D87D42EB-05A8-1D46-991C-3742397F4713}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="AddLocation" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
   <si>
     <t>MiddleName</t>
   </si>
@@ -105,12 +107,75 @@
   <si>
     <t>Ozcan</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mika</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Mehmet</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Natalija</t>
+  </si>
+  <si>
+    <t>Serbia and Montenegro</t>
+  </si>
+  <si>
+    <t>Beograd</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Jorgos</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Atina</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,6 +195,21 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,13 +227,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,21 +568,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CD0361-DD38-7D4C-81A8-F7B9626994F8}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="33" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="25" customHeight="1">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28" customHeight="1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="28" customHeight="1">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="23" customHeight="1">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="22" customHeight="1">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A422DBA-438C-1A4A-8A86-A9158EF978A7}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" customHeight="1">
+    <row r="1" spans="1:4" ht="26" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -496,7 +803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25" customHeight="1">
+    <row r="2" spans="1:4" ht="23" customHeight="1">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -507,10 +814,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" customHeight="1">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -524,7 +831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -538,7 +845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27" customHeight="1">
+    <row r="5" spans="1:4" ht="19" customHeight="1">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -546,13 +853,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="22" customHeight="1">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -566,7 +873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="19" customHeight="1">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -580,7 +887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -594,7 +901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="25" customHeight="1">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -608,7 +915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="24" customHeight="1">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -622,7 +929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="21" customHeight="1">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -634,6 +941,97 @@
       </c>
       <c r="D11" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA81591-CC6F-064C-BA74-46CAB4F6D683}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3042</v>
       </c>
     </row>
   </sheetData>
